--- a/data/donnees_MABEL2_2023-07-21.xlsx
+++ b/data/donnees_MABEL2_2023-07-21.xlsx
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>-7817031.2</v>
+        <v>-8132775.2</v>
       </c>
       <c r="E135" s="2" t="n">
         <v>15756653.98</v>
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="2" t="n">
-        <v>7939622.78</v>
+        <v>7623878.78</v>
       </c>
     </row>
     <row r="136">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>-284600</v>
+        <v>-318500</v>
       </c>
       <c r="E136" s="2" t="n">
         <v>543449.13</v>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="2" t="n">
-        <v>258849.13</v>
+        <v>224949.13</v>
       </c>
     </row>
     <row r="137">
@@ -5417,7 +5417,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>-2674800</v>
+        <v>-2884500</v>
       </c>
       <c r="E142" s="2" t="n">
         <v>2243855.52</v>
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="I142" s="2" t="n">
-        <v>-430944.48</v>
+        <v>-640644.48</v>
       </c>
     </row>
     <row r="143">

--- a/data/donnees_MABEL2_2023-07-21.xlsx
+++ b/data/donnees_MABEL2_2023-07-21.xlsx
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-123336937.57</v>
+        <v>-122214013.57</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>21720656.14</v>
@@ -1897,7 +1897,7 @@
         <v>106269240.8</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>27674225.54</v>
+        <v>28797149.54</v>
       </c>
     </row>
     <row r="42">
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>-29374531.94</v>
+        <v>-29427451.94</v>
       </c>
       <c r="E86" s="2" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>20997704.6</v>
       </c>
       <c r="I86" s="2" t="n">
-        <v>3473107.24</v>
+        <v>3420187.24</v>
       </c>
     </row>
     <row r="87">

--- a/data/donnees_MABEL2_2023-07-21.xlsx
+++ b/data/donnees_MABEL2_2023-07-21.xlsx
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>12399298.56</v>
+        <v>14243457.36</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>16218026.64</v>
+        <v>14373867.84</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>-5148547.2</v>
@@ -1847,10 +1847,10 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-254157181.02</v>
+        <v>-231230077.02</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>34811907.6</v>
+        <v>11884803.6</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>9084152.52</v>
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-262082600</v>
+        <v>-303626100</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>63862500</v>
@@ -2352,7 +2352,7 @@
         <v>92494700</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>-222255200</v>
+        <v>-263798700</v>
       </c>
     </row>
     <row r="55">
@@ -2617,7 +2617,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-487500</v>
+        <v>-514800</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>0</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>-240000</v>
+        <v>-267300</v>
       </c>
     </row>
     <row r="63">
@@ -3807,10 +3807,10 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>-6137903.4</v>
+        <v>-1697836.2</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>15968334</v>
+        <v>11528266.8</v>
       </c>
       <c r="F96" s="2" t="n">
         <v>4402318.8</v>
@@ -5067,7 +5067,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>0</v>
+        <v>-18183800</v>
       </c>
       <c r="E132" s="2" t="n">
         <v>11557800</v>
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="2" t="n">
-        <v>11557800</v>
+        <v>-6626000</v>
       </c>
     </row>
     <row r="133">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>-8132775.2</v>
+        <v>-9048975.199999999</v>
       </c>
       <c r="E135" s="2" t="n">
         <v>15756653.98</v>
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="2" t="n">
-        <v>7623878.78</v>
+        <v>6707678.78</v>
       </c>
     </row>
     <row r="136">
@@ -5198,19 +5198,19 @@
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>C22172</t>
+          <t>C22161</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>PERSONNEL INVISO AU COMPTANT</t>
+          <t>SOCIETE HATIMEX</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>-318500</v>
+        <v>-537570.5600000001</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>543449.13</v>
+        <v>1149850.8</v>
       </c>
       <c r="F136" s="2" t="n">
         <v>0</v>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="2" t="n">
-        <v>224949.13</v>
+        <v>612280.24</v>
       </c>
     </row>
     <row r="137">
@@ -5233,19 +5233,19 @@
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>C22161</t>
+          <t>C22167</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>SOCIETE HATIMEX</t>
+          <t>FAMILLE ISMAEL</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>-537570.5600000001</v>
+        <v>868087.2</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>1149850.8</v>
+        <v>0</v>
       </c>
       <c r="F137" s="2" t="n">
         <v>0</v>
@@ -5257,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="2" t="n">
-        <v>612280.24</v>
+        <v>868087.2</v>
       </c>
     </row>
     <row r="138">
@@ -5268,16 +5268,16 @@
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>C22167</t>
+          <t>C22114</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>FAMILLE ISMAEL</t>
+          <t>SOCIETE LE GLACIER - BAR RESTAURANT</t>
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>868087.2</v>
+        <v>650016</v>
       </c>
       <c r="E138" s="2" t="n">
         <v>0</v>
@@ -5292,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="2" t="n">
-        <v>868087.2</v>
+        <v>650016</v>
       </c>
     </row>
     <row r="139">
@@ -5303,16 +5303,16 @@
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>C22114</t>
+          <t>C22165</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>SOCIETE LE GLACIER - BAR RESTAURANT</t>
+          <t>NEWREST MADAGASCAR SARL</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>650016</v>
+        <v>55205520</v>
       </c>
       <c r="E139" s="2" t="n">
         <v>0</v>
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="2" t="n">
-        <v>650016</v>
+        <v>55205520</v>
       </c>
     </row>
     <row r="140">
@@ -5338,16 +5338,16 @@
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>C22165</t>
+          <t>C22168</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>NEWREST MADAGASCAR SARL</t>
+          <t>GRAND HOTEL DU LOUVRE</t>
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>55205520</v>
+        <v>1615353.6</v>
       </c>
       <c r="E140" s="2" t="n">
         <v>0</v>
@@ -5362,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="2" t="n">
-        <v>55205520</v>
+        <v>1615353.6</v>
       </c>
     </row>
     <row r="141">
@@ -5373,19 +5373,19 @@
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>C22168</t>
+          <t>C22171</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>GRAND HOTEL DU LOUVRE</t>
+          <t>RALIMANANA VEROSOA MARTINE</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>1615353.6</v>
+        <v>-2884500</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>0</v>
+        <v>2243855.52</v>
       </c>
       <c r="F141" s="2" t="n">
         <v>0</v>
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="2" t="n">
-        <v>1615353.6</v>
+        <v>-640644.48</v>
       </c>
     </row>
     <row r="142">
@@ -5408,19 +5408,19 @@
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>C22171</t>
+          <t>C22121</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>RALIMANANA VEROSOA MARTINE</t>
+          <t>VOAHANGINIRINA CLAUTILDE</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>-2884500</v>
+        <v>-3552300</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>2243855.52</v>
+        <v>3552178.85</v>
       </c>
       <c r="F142" s="2" t="n">
         <v>0</v>
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="I142" s="2" t="n">
-        <v>-640644.48</v>
+        <v>-121.15</v>
       </c>
     </row>
     <row r="143">
@@ -5443,19 +5443,19 @@
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>C22121</t>
+          <t>C22174</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>VOAHANGINIRINA CLAUTILDE</t>
+          <t>RAMANANARIVO NAINA MAMY TANTELY</t>
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>-3552300</v>
+        <v>319636.8</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>3552178.85</v>
+        <v>627530.88</v>
       </c>
       <c r="F143" s="2" t="n">
         <v>0</v>
@@ -5467,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="I143" s="2" t="n">
-        <v>-121.15</v>
+        <v>947167.6800000001</v>
       </c>
     </row>
     <row r="144">
@@ -5478,19 +5478,19 @@
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>C22174</t>
+          <t>C22173</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>RAMANANARIVO NAINA MAMY TANTELY</t>
+          <t>ECHANTILLON GRATUIT</t>
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>319636.8</v>
+        <v>64118.89</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>627530.88</v>
+        <v>0</v>
       </c>
       <c r="F144" s="2" t="n">
         <v>0</v>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="I144" s="2" t="n">
-        <v>947167.6800000001</v>
+        <v>64118.89</v>
       </c>
     </row>
     <row r="145">
@@ -5513,19 +5513,19 @@
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>C22173</t>
+          <t>C22163</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>ECHANTILLON GRATUIT</t>
+          <t>RASAMOELY VONJITIANA HERIMANN (RABEGADOA)</t>
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>64118.89</v>
+        <v>1098003.6</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>0</v>
+        <v>1055810.4</v>
       </c>
       <c r="F145" s="2" t="n">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="I145" s="2" t="n">
-        <v>64118.89</v>
+        <v>2153814</v>
       </c>
     </row>
     <row r="146">
@@ -5548,19 +5548,19 @@
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>C22163</t>
+          <t>C22175</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>RASAMOELY VONJITIANA HERIMANN (RABEGADOA)</t>
+          <t>FIFANAMPIANA RASSOUL OUL AKRAM</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>1098003.6</v>
+        <v>0</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>1055810.4</v>
+        <v>773969.76</v>
       </c>
       <c r="F146" s="2" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="2" t="n">
-        <v>2153814</v>
+        <v>773969.76</v>
       </c>
     </row>
     <row r="147">
@@ -5583,19 +5583,19 @@
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>C22175</t>
+          <t>C22172</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>FIFANAMPIANA RASSOUL OUL AKRAM</t>
+          <t>PERSONNEL INVISO AU COMPTANT</t>
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>0</v>
+        <v>-107800</v>
       </c>
       <c r="E147" s="2" t="n">
-        <v>773969.76</v>
+        <v>0</v>
       </c>
       <c r="F147" s="2" t="n">
         <v>0</v>
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="I147" s="2" t="n">
-        <v>773969.76</v>
+        <v>-107800</v>
       </c>
     </row>
     <row r="148">
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>-2459635</v>
+        <v>-2465435</v>
       </c>
       <c r="E148" s="2" t="n">
         <v>1219964.88</v>
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="I148" s="2" t="n">
-        <v>-1239670.12</v>
+        <v>-1245470.12</v>
       </c>
     </row>
     <row r="149">
@@ -5691,7 +5691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I197"/>
+  <dimension ref="A1:I198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6194,7 +6194,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>19856058</v>
+        <v>2873364</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -6209,7 +6209,7 @@
         <v>-5812258</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>14043800</v>
+        <v>-2938894</v>
       </c>
     </row>
     <row r="15">
@@ -10782,7 +10782,7 @@
         <v>258722600</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>0</v>
+        <v>-6991251.8</v>
       </c>
       <c r="F145" s="2" t="n">
         <v>0</v>
@@ -10794,7 +10794,7 @@
         <v>3357780</v>
       </c>
       <c r="I145" s="2" t="n">
-        <v>262080380</v>
+        <v>255089128.2</v>
       </c>
     </row>
     <row r="146">
@@ -12615,6 +12615,41 @@
       </c>
       <c r="I197" s="2" t="n">
         <v>-710000</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>Fournisseur</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>F23355</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>LEONDARIS GEORGES</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>-21814.46</v>
+      </c>
+      <c r="F198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" s="2" t="n">
+        <v>-21814.46</v>
       </c>
     </row>
   </sheetData>
